--- a/school mockup data/KMUTNB/form_student_2-1.xlsx
+++ b/school mockup data/KMUTNB/form_student_2-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perawit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\school mockup data\KMUTNB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA19224-4E95-40A4-884F-27C09A391988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5FB20C-8430-41FB-8201-99306318C5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2088" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
   <si>
     <t>index</t>
   </si>
@@ -298,6 +298,27 @@
   </si>
   <si>
     <t>30/39-50 หมู่ 2. ถ.งามวงศ์วาน บางเขน นนทบุรี 11000</t>
+  </si>
+  <si>
+    <t>33111</t>
+  </si>
+  <si>
+    <t>Wei Wang</t>
+  </si>
+  <si>
+    <t>wei-22@example.com</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>another wei child</t>
+  </si>
+  <si>
+    <t>fang Wang</t>
+  </si>
+  <si>
+    <t>fang-22@example.com</t>
   </si>
 </sst>
 </file>
@@ -321,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -411,11 +432,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,6 +538,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,54 +834,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22.796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23.19921875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="62.19921875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="4"/>
+    <col min="2" max="2" width="13.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="62.25" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -781,32 +891,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="12" t="s">
         <v>42</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -816,32 +926,32 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="12" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -851,32 +961,32 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -886,32 +996,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="12" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -921,32 +1031,32 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="12" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -956,32 +1066,32 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="12" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -991,32 +1101,32 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="12" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="12" t="s">
         <v>32</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -1026,32 +1136,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="12" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="12" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -1061,32 +1171,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="12" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -1096,32 +1206,32 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="12" t="s">
         <v>77</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -1131,8 +1241,46 @@
         <v>90</v>
       </c>
     </row>
+    <row r="12" spans="1:11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J12" r:id="rId1" xr:uid="{3AE2F7D9-E49E-441D-A5B0-D8DDBB277E98}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>